--- a/data/merge_teamrankings.xlsx
+++ b/data/merge_teamrankings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="589">
   <si>
     <t>Index</t>
   </si>
@@ -2174,9 +2174,6 @@
       <c r="D2" t="s">
         <v>463</v>
       </c>
-      <c r="E2" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
@@ -2191,9 +2188,6 @@
       <c r="D3" t="s">
         <v>463</v>
       </c>
-      <c r="E3" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
@@ -2208,9 +2202,6 @@
       <c r="D4" t="s">
         <v>463</v>
       </c>
-      <c r="E4" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
@@ -2225,9 +2216,6 @@
       <c r="D5" t="s">
         <v>464</v>
       </c>
-      <c r="E5" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -2242,9 +2230,6 @@
       <c r="D6" t="s">
         <v>463</v>
       </c>
-      <c r="E6" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
@@ -2259,9 +2244,6 @@
       <c r="D7" t="s">
         <v>465</v>
       </c>
-      <c r="E7" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
@@ -2276,9 +2258,6 @@
       <c r="D8" t="s">
         <v>463</v>
       </c>
-      <c r="E8" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
@@ -2293,9 +2272,6 @@
       <c r="D9" t="s">
         <v>466</v>
       </c>
-      <c r="E9" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
@@ -2310,9 +2286,6 @@
       <c r="D10" t="s">
         <v>467</v>
       </c>
-      <c r="E10" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
@@ -2327,9 +2300,6 @@
       <c r="D11" t="s">
         <v>463</v>
       </c>
-      <c r="E11" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
@@ -2344,9 +2314,6 @@
       <c r="D12" t="s">
         <v>463</v>
       </c>
-      <c r="E12" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
@@ -2361,9 +2328,6 @@
       <c r="D13" t="s">
         <v>463</v>
       </c>
-      <c r="E13" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
@@ -2378,9 +2342,6 @@
       <c r="D14" t="s">
         <v>468</v>
       </c>
-      <c r="E14" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
@@ -2395,9 +2356,6 @@
       <c r="D15" t="s">
         <v>463</v>
       </c>
-      <c r="E15" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
@@ -2412,11 +2370,8 @@
       <c r="D16" t="s">
         <v>469</v>
       </c>
-      <c r="E16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2429,11 +2384,8 @@
       <c r="D17" t="s">
         <v>249</v>
       </c>
-      <c r="E17" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2446,11 +2398,8 @@
       <c r="D18" t="s">
         <v>463</v>
       </c>
-      <c r="E18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2463,11 +2412,8 @@
       <c r="D19" t="s">
         <v>470</v>
       </c>
-      <c r="E19" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2480,11 +2426,8 @@
       <c r="D20" t="s">
         <v>463</v>
       </c>
-      <c r="E20" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2497,11 +2440,8 @@
       <c r="D21" t="s">
         <v>463</v>
       </c>
-      <c r="E21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2514,11 +2454,8 @@
       <c r="D22" t="s">
         <v>463</v>
       </c>
-      <c r="E22" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2531,11 +2468,8 @@
       <c r="D23" t="s">
         <v>471</v>
       </c>
-      <c r="E23" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2548,11 +2482,8 @@
       <c r="D24" t="s">
         <v>472</v>
       </c>
-      <c r="E24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2565,11 +2496,8 @@
       <c r="D25" t="s">
         <v>473</v>
       </c>
-      <c r="E25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2582,11 +2510,8 @@
       <c r="D26" t="s">
         <v>463</v>
       </c>
-      <c r="E26" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2599,11 +2524,8 @@
       <c r="D27" t="s">
         <v>474</v>
       </c>
-      <c r="E27" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2616,11 +2538,8 @@
       <c r="D28" t="s">
         <v>475</v>
       </c>
-      <c r="E28" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2633,11 +2552,8 @@
       <c r="D29" t="s">
         <v>463</v>
       </c>
-      <c r="E29" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2650,11 +2566,8 @@
       <c r="D30" t="s">
         <v>463</v>
       </c>
-      <c r="E30" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2667,11 +2580,8 @@
       <c r="D31" t="s">
         <v>476</v>
       </c>
-      <c r="E31" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2684,11 +2594,8 @@
       <c r="D32" t="s">
         <v>463</v>
       </c>
-      <c r="E32" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2701,11 +2608,8 @@
       <c r="D33" t="s">
         <v>477</v>
       </c>
-      <c r="E33" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2718,11 +2622,8 @@
       <c r="D34" t="s">
         <v>478</v>
       </c>
-      <c r="E34" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2735,11 +2636,8 @@
       <c r="D35" t="s">
         <v>479</v>
       </c>
-      <c r="E35" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2752,11 +2650,8 @@
       <c r="D36" t="s">
         <v>480</v>
       </c>
-      <c r="E36" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2769,11 +2664,8 @@
       <c r="D37" t="s">
         <v>463</v>
       </c>
-      <c r="E37" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2786,11 +2678,8 @@
       <c r="D38" t="s">
         <v>270</v>
       </c>
-      <c r="E38" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2803,11 +2692,8 @@
       <c r="D39" t="s">
         <v>463</v>
       </c>
-      <c r="E39" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2820,11 +2706,8 @@
       <c r="D40" t="s">
         <v>481</v>
       </c>
-      <c r="E40" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2837,11 +2720,8 @@
       <c r="D41" t="s">
         <v>463</v>
       </c>
-      <c r="E41" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2854,11 +2734,8 @@
       <c r="D42" t="s">
         <v>463</v>
       </c>
-      <c r="E42" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2871,11 +2748,8 @@
       <c r="D43" t="s">
         <v>463</v>
       </c>
-      <c r="E43" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2888,11 +2762,8 @@
       <c r="D44" t="s">
         <v>463</v>
       </c>
-      <c r="E44" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2905,11 +2776,8 @@
       <c r="D45" t="s">
         <v>482</v>
       </c>
-      <c r="E45" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2922,11 +2790,8 @@
       <c r="D46" t="s">
         <v>463</v>
       </c>
-      <c r="E46" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2939,11 +2804,8 @@
       <c r="D47" t="s">
         <v>279</v>
       </c>
-      <c r="E47" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2956,11 +2818,8 @@
       <c r="D48" t="s">
         <v>463</v>
       </c>
-      <c r="E48" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2973,11 +2832,8 @@
       <c r="D49" t="s">
         <v>463</v>
       </c>
-      <c r="E49" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2990,11 +2846,8 @@
       <c r="D50" t="s">
         <v>483</v>
       </c>
-      <c r="E50" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3007,11 +2860,8 @@
       <c r="D51" t="s">
         <v>484</v>
       </c>
-      <c r="E51" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3024,11 +2874,8 @@
       <c r="D52" t="s">
         <v>463</v>
       </c>
-      <c r="E52" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3041,11 +2888,8 @@
       <c r="D53" t="s">
         <v>485</v>
       </c>
-      <c r="E53" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3058,11 +2902,8 @@
       <c r="D54" t="s">
         <v>486</v>
       </c>
-      <c r="E54" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3075,11 +2916,8 @@
       <c r="D55" t="s">
         <v>487</v>
       </c>
-      <c r="E55" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3092,11 +2930,8 @@
       <c r="D56" t="s">
         <v>463</v>
       </c>
-      <c r="E56" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3109,11 +2944,8 @@
       <c r="D57" t="s">
         <v>488</v>
       </c>
-      <c r="E57" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3126,11 +2958,8 @@
       <c r="D58" t="s">
         <v>489</v>
       </c>
-      <c r="E58" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3143,11 +2972,8 @@
       <c r="D59" t="s">
         <v>490</v>
       </c>
-      <c r="E59" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3160,11 +2986,8 @@
       <c r="D60" t="s">
         <v>491</v>
       </c>
-      <c r="E60" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3177,11 +3000,8 @@
       <c r="D61" t="s">
         <v>492</v>
       </c>
-      <c r="E61" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3194,11 +3014,8 @@
       <c r="D62" t="s">
         <v>493</v>
       </c>
-      <c r="E62" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3211,11 +3028,8 @@
       <c r="D63" t="s">
         <v>494</v>
       </c>
-      <c r="E63" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3228,11 +3042,8 @@
       <c r="D64" t="s">
         <v>495</v>
       </c>
-      <c r="E64" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3245,11 +3056,8 @@
       <c r="D65" t="s">
         <v>463</v>
       </c>
-      <c r="E65" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3262,11 +3070,8 @@
       <c r="D66" t="s">
         <v>496</v>
       </c>
-      <c r="E66" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3279,11 +3084,8 @@
       <c r="D67" t="s">
         <v>463</v>
       </c>
-      <c r="E67" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3296,11 +3098,8 @@
       <c r="D68" t="s">
         <v>497</v>
       </c>
-      <c r="E68" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3313,11 +3112,8 @@
       <c r="D69" t="s">
         <v>463</v>
       </c>
-      <c r="E69" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3330,11 +3126,8 @@
       <c r="D70" t="s">
         <v>498</v>
       </c>
-      <c r="E70" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3347,11 +3140,8 @@
       <c r="D71" t="s">
         <v>463</v>
       </c>
-      <c r="E71" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3364,11 +3154,8 @@
       <c r="D72" t="s">
         <v>463</v>
       </c>
-      <c r="E72" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3381,11 +3168,8 @@
       <c r="D73" t="s">
         <v>499</v>
       </c>
-      <c r="E73" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3398,11 +3182,8 @@
       <c r="D74" t="s">
         <v>500</v>
       </c>
-      <c r="E74" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3415,11 +3196,8 @@
       <c r="D75" t="s">
         <v>463</v>
       </c>
-      <c r="E75" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3432,11 +3210,8 @@
       <c r="D76" t="s">
         <v>501</v>
       </c>
-      <c r="E76" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3449,11 +3224,8 @@
       <c r="D77" t="s">
         <v>463</v>
       </c>
-      <c r="E77" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3466,11 +3238,8 @@
       <c r="D78" t="s">
         <v>463</v>
       </c>
-      <c r="E78" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3483,11 +3252,8 @@
       <c r="D79" t="s">
         <v>502</v>
       </c>
-      <c r="E79" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3500,11 +3266,8 @@
       <c r="D80" t="s">
         <v>463</v>
       </c>
-      <c r="E80" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3517,11 +3280,8 @@
       <c r="D81" t="s">
         <v>463</v>
       </c>
-      <c r="E81" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3534,11 +3294,8 @@
       <c r="D82" t="s">
         <v>503</v>
       </c>
-      <c r="E82" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3551,11 +3308,8 @@
       <c r="D83" t="s">
         <v>504</v>
       </c>
-      <c r="E83" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3568,11 +3322,8 @@
       <c r="D84" t="s">
         <v>463</v>
       </c>
-      <c r="E84" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3585,11 +3336,8 @@
       <c r="D85" t="s">
         <v>463</v>
       </c>
-      <c r="E85" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3602,11 +3350,8 @@
       <c r="D86" t="s">
         <v>463</v>
       </c>
-      <c r="E86" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3619,11 +3364,8 @@
       <c r="D87" t="s">
         <v>463</v>
       </c>
-      <c r="E87" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3636,11 +3378,8 @@
       <c r="D88" t="s">
         <v>463</v>
       </c>
-      <c r="E88" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3653,11 +3392,8 @@
       <c r="D89" t="s">
         <v>463</v>
       </c>
-      <c r="E89" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3670,11 +3406,8 @@
       <c r="D90" t="s">
         <v>463</v>
       </c>
-      <c r="E90" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3687,11 +3420,8 @@
       <c r="D91" t="s">
         <v>505</v>
       </c>
-      <c r="E91" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3704,11 +3434,8 @@
       <c r="D92" t="s">
         <v>506</v>
       </c>
-      <c r="E92" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3721,11 +3448,8 @@
       <c r="D93" t="s">
         <v>507</v>
       </c>
-      <c r="E93" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3738,11 +3462,8 @@
       <c r="D94" t="s">
         <v>508</v>
       </c>
-      <c r="E94" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3755,11 +3476,8 @@
       <c r="D95" t="s">
         <v>509</v>
       </c>
-      <c r="E95" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3772,11 +3490,8 @@
       <c r="D96" t="s">
         <v>510</v>
       </c>
-      <c r="E96" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3789,11 +3504,8 @@
       <c r="D97" t="s">
         <v>463</v>
       </c>
-      <c r="E97" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3806,11 +3518,8 @@
       <c r="D98" t="s">
         <v>511</v>
       </c>
-      <c r="E98" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3823,11 +3532,8 @@
       <c r="D99" t="s">
         <v>512</v>
       </c>
-      <c r="E99" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3840,11 +3546,8 @@
       <c r="D100" t="s">
         <v>463</v>
       </c>
-      <c r="E100" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3857,11 +3560,8 @@
       <c r="D101" t="s">
         <v>513</v>
       </c>
-      <c r="E101" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3874,11 +3574,8 @@
       <c r="D102" t="s">
         <v>463</v>
       </c>
-      <c r="E102" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3891,11 +3588,8 @@
       <c r="D103" t="s">
         <v>335</v>
       </c>
-      <c r="E103" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3908,11 +3602,8 @@
       <c r="D104" t="s">
         <v>463</v>
       </c>
-      <c r="E104" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3925,11 +3616,8 @@
       <c r="D105" t="s">
         <v>514</v>
       </c>
-      <c r="E105" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3942,11 +3630,8 @@
       <c r="D106" t="s">
         <v>515</v>
       </c>
-      <c r="E106" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3959,11 +3644,8 @@
       <c r="D107" t="s">
         <v>339</v>
       </c>
-      <c r="E107" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3976,11 +3658,8 @@
       <c r="D108" t="s">
         <v>516</v>
       </c>
-      <c r="E108" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3993,11 +3672,8 @@
       <c r="D109" t="s">
         <v>517</v>
       </c>
-      <c r="E109" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4010,11 +3686,8 @@
       <c r="D110" t="s">
         <v>518</v>
       </c>
-      <c r="E110" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4027,11 +3700,8 @@
       <c r="D111" t="s">
         <v>519</v>
       </c>
-      <c r="E111" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4044,11 +3714,8 @@
       <c r="D112" t="s">
         <v>520</v>
       </c>
-      <c r="E112" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4061,11 +3728,8 @@
       <c r="D113" t="s">
         <v>521</v>
       </c>
-      <c r="E113" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4078,11 +3742,8 @@
       <c r="D114" t="s">
         <v>522</v>
       </c>
-      <c r="E114" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4095,11 +3756,8 @@
       <c r="D115" t="s">
         <v>463</v>
       </c>
-      <c r="E115" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4112,11 +3770,8 @@
       <c r="D116" t="s">
         <v>463</v>
       </c>
-      <c r="E116" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4129,11 +3784,8 @@
       <c r="D117" t="s">
         <v>463</v>
       </c>
-      <c r="E117" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4146,11 +3798,8 @@
       <c r="D118" t="s">
         <v>523</v>
       </c>
-      <c r="E118" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4163,11 +3812,8 @@
       <c r="D119" t="s">
         <v>524</v>
       </c>
-      <c r="E119" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4180,11 +3826,8 @@
       <c r="D120" t="s">
         <v>463</v>
       </c>
-      <c r="E120" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4197,11 +3840,8 @@
       <c r="D121" t="s">
         <v>463</v>
       </c>
-      <c r="E121" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4214,11 +3854,8 @@
       <c r="D122" t="s">
         <v>525</v>
       </c>
-      <c r="E122" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4231,11 +3868,8 @@
       <c r="D123" t="s">
         <v>526</v>
       </c>
-      <c r="E123" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4248,11 +3882,8 @@
       <c r="D124" t="s">
         <v>463</v>
       </c>
-      <c r="E124" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4265,11 +3896,8 @@
       <c r="D125" t="s">
         <v>463</v>
       </c>
-      <c r="E125" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4282,11 +3910,8 @@
       <c r="D126" t="s">
         <v>527</v>
       </c>
-      <c r="E126" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4299,11 +3924,8 @@
       <c r="D127" t="s">
         <v>463</v>
       </c>
-      <c r="E127" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4316,11 +3938,8 @@
       <c r="D128" t="s">
         <v>528</v>
       </c>
-      <c r="E128" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4333,11 +3952,8 @@
       <c r="D129" t="s">
         <v>529</v>
       </c>
-      <c r="E129" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4350,11 +3966,8 @@
       <c r="D130" t="s">
         <v>530</v>
       </c>
-      <c r="E130" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4367,11 +3980,8 @@
       <c r="D131" t="s">
         <v>531</v>
       </c>
-      <c r="E131" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4384,11 +3994,8 @@
       <c r="D132" t="s">
         <v>463</v>
       </c>
-      <c r="E132" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4401,11 +4008,8 @@
       <c r="D133" t="s">
         <v>532</v>
       </c>
-      <c r="E133" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4418,11 +4022,8 @@
       <c r="D134" t="s">
         <v>463</v>
       </c>
-      <c r="E134" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4435,11 +4036,8 @@
       <c r="D135" t="s">
         <v>533</v>
       </c>
-      <c r="E135" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4452,11 +4050,8 @@
       <c r="D136" t="s">
         <v>534</v>
       </c>
-      <c r="E136" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4469,11 +4064,8 @@
       <c r="D137" t="s">
         <v>535</v>
       </c>
-      <c r="E137" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4486,11 +4078,8 @@
       <c r="D138" t="s">
         <v>536</v>
       </c>
-      <c r="E138" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4503,11 +4092,8 @@
       <c r="D139" t="s">
         <v>537</v>
       </c>
-      <c r="E139" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4520,11 +4106,8 @@
       <c r="D140" t="s">
         <v>538</v>
       </c>
-      <c r="E140" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4537,11 +4120,8 @@
       <c r="D141" t="s">
         <v>539</v>
       </c>
-      <c r="E141" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4554,11 +4134,8 @@
       <c r="D142" t="s">
         <v>540</v>
       </c>
-      <c r="E142" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4571,11 +4148,8 @@
       <c r="D143" t="s">
         <v>463</v>
       </c>
-      <c r="E143" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4588,11 +4162,8 @@
       <c r="D144" t="s">
         <v>463</v>
       </c>
-      <c r="E144" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4605,11 +4176,8 @@
       <c r="D145" t="s">
         <v>541</v>
       </c>
-      <c r="E145" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4622,11 +4190,8 @@
       <c r="D146" t="s">
         <v>542</v>
       </c>
-      <c r="E146" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4639,11 +4204,8 @@
       <c r="D147" t="s">
         <v>463</v>
       </c>
-      <c r="E147" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4656,11 +4218,8 @@
       <c r="D148" t="s">
         <v>543</v>
       </c>
-      <c r="E148" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4673,11 +4232,8 @@
       <c r="D149" t="s">
         <v>544</v>
       </c>
-      <c r="E149" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4690,11 +4246,8 @@
       <c r="D150" t="s">
         <v>545</v>
       </c>
-      <c r="E150" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4707,11 +4260,8 @@
       <c r="D151" t="s">
         <v>546</v>
       </c>
-      <c r="E151" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4724,11 +4274,8 @@
       <c r="D152" t="s">
         <v>547</v>
       </c>
-      <c r="E152" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4741,11 +4288,8 @@
       <c r="D153" t="s">
         <v>463</v>
       </c>
-      <c r="E153" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4758,11 +4302,8 @@
       <c r="D154" t="s">
         <v>548</v>
       </c>
-      <c r="E154" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4775,11 +4316,8 @@
       <c r="D155" t="s">
         <v>549</v>
       </c>
-      <c r="E155" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4792,11 +4330,8 @@
       <c r="D156" t="s">
         <v>463</v>
       </c>
-      <c r="E156" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4809,11 +4344,8 @@
       <c r="D157" t="s">
         <v>389</v>
       </c>
-      <c r="E157" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4826,11 +4358,8 @@
       <c r="D158" t="s">
         <v>550</v>
       </c>
-      <c r="E158" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4843,11 +4372,8 @@
       <c r="D159" t="s">
         <v>463</v>
       </c>
-      <c r="E159" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4860,11 +4386,8 @@
       <c r="D160" t="s">
         <v>551</v>
       </c>
-      <c r="E160" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4877,11 +4400,8 @@
       <c r="D161" t="s">
         <v>552</v>
       </c>
-      <c r="E161" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4894,11 +4414,8 @@
       <c r="D162" t="s">
         <v>553</v>
       </c>
-      <c r="E162" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4911,11 +4428,8 @@
       <c r="D163" t="s">
         <v>463</v>
       </c>
-      <c r="E163" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4928,11 +4442,8 @@
       <c r="D164" t="s">
         <v>463</v>
       </c>
-      <c r="E164" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4945,11 +4456,8 @@
       <c r="D165" t="s">
         <v>463</v>
       </c>
-      <c r="E165" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4962,11 +4470,8 @@
       <c r="D166" t="s">
         <v>554</v>
       </c>
-      <c r="E166" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4979,11 +4484,8 @@
       <c r="D167" t="s">
         <v>555</v>
       </c>
-      <c r="E167" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4996,11 +4498,8 @@
       <c r="D168" t="s">
         <v>556</v>
       </c>
-      <c r="E168" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5013,11 +4512,8 @@
       <c r="D169" t="s">
         <v>463</v>
       </c>
-      <c r="E169" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5030,11 +4526,8 @@
       <c r="D170" t="s">
         <v>557</v>
       </c>
-      <c r="E170" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5047,11 +4540,8 @@
       <c r="D171" t="s">
         <v>558</v>
       </c>
-      <c r="E171" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5064,11 +4554,8 @@
       <c r="D172" t="s">
         <v>559</v>
       </c>
-      <c r="E172" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5081,11 +4568,8 @@
       <c r="D173" t="s">
         <v>560</v>
       </c>
-      <c r="E173" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5098,11 +4582,8 @@
       <c r="D174" t="s">
         <v>561</v>
       </c>
-      <c r="E174" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5115,11 +4596,8 @@
       <c r="D175" t="s">
         <v>562</v>
       </c>
-      <c r="E175" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5132,11 +4610,8 @@
       <c r="D176" t="s">
         <v>563</v>
       </c>
-      <c r="E176" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5149,11 +4624,8 @@
       <c r="D177" t="s">
         <v>463</v>
       </c>
-      <c r="E177" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5166,11 +4638,8 @@
       <c r="D178" t="s">
         <v>463</v>
       </c>
-      <c r="E178" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5183,11 +4652,8 @@
       <c r="D179" t="s">
         <v>564</v>
       </c>
-      <c r="E179" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5200,11 +4666,8 @@
       <c r="D180" t="s">
         <v>565</v>
       </c>
-      <c r="E180" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5217,11 +4680,8 @@
       <c r="D181" t="s">
         <v>566</v>
       </c>
-      <c r="E181" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5234,11 +4694,8 @@
       <c r="D182" t="s">
         <v>463</v>
       </c>
-      <c r="E182" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5251,11 +4708,8 @@
       <c r="D183" t="s">
         <v>463</v>
       </c>
-      <c r="E183" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5268,11 +4722,8 @@
       <c r="D184" t="s">
         <v>463</v>
       </c>
-      <c r="E184" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5285,11 +4736,8 @@
       <c r="D185" t="s">
         <v>463</v>
       </c>
-      <c r="E185" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5302,11 +4750,8 @@
       <c r="D186" t="s">
         <v>463</v>
       </c>
-      <c r="E186" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5319,11 +4764,8 @@
       <c r="D187" t="s">
         <v>567</v>
       </c>
-      <c r="E187" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5336,11 +4778,8 @@
       <c r="D188" t="s">
         <v>463</v>
       </c>
-      <c r="E188" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5353,11 +4792,8 @@
       <c r="D189" t="s">
         <v>568</v>
       </c>
-      <c r="E189" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5370,11 +4806,8 @@
       <c r="D190" t="s">
         <v>463</v>
       </c>
-      <c r="E190" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5387,11 +4820,8 @@
       <c r="D191" t="s">
         <v>569</v>
       </c>
-      <c r="E191" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5404,11 +4834,8 @@
       <c r="D192" t="s">
         <v>570</v>
       </c>
-      <c r="E192" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5421,11 +4848,8 @@
       <c r="D193" t="s">
         <v>463</v>
       </c>
-      <c r="E193" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5438,11 +4862,8 @@
       <c r="D194" t="s">
         <v>571</v>
       </c>
-      <c r="E194" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5455,11 +4876,8 @@
       <c r="D195" t="s">
         <v>572</v>
       </c>
-      <c r="E195" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5472,11 +4890,8 @@
       <c r="D196" t="s">
         <v>573</v>
       </c>
-      <c r="E196" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5489,11 +4904,8 @@
       <c r="D197" t="s">
         <v>463</v>
       </c>
-      <c r="E197" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5506,11 +4918,8 @@
       <c r="D198" t="s">
         <v>430</v>
       </c>
-      <c r="E198" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5523,11 +4932,8 @@
       <c r="D199" t="s">
         <v>463</v>
       </c>
-      <c r="E199" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5540,11 +4946,8 @@
       <c r="D200" t="s">
         <v>574</v>
       </c>
-      <c r="E200" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5557,11 +4960,8 @@
       <c r="D201" t="s">
         <v>575</v>
       </c>
-      <c r="E201" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5574,11 +4974,8 @@
       <c r="D202" t="s">
         <v>463</v>
       </c>
-      <c r="E202" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5591,11 +4988,8 @@
       <c r="D203" t="s">
         <v>576</v>
       </c>
-      <c r="E203" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5608,11 +5002,8 @@
       <c r="D204" t="s">
         <v>577</v>
       </c>
-      <c r="E204" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5625,11 +5016,8 @@
       <c r="D205" t="s">
         <v>463</v>
       </c>
-      <c r="E205" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5642,11 +5030,8 @@
       <c r="D206" t="s">
         <v>463</v>
       </c>
-      <c r="E206" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5659,11 +5044,8 @@
       <c r="D207" t="s">
         <v>578</v>
       </c>
-      <c r="E207" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5676,11 +5058,8 @@
       <c r="D208" t="s">
         <v>463</v>
       </c>
-      <c r="E208" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5693,11 +5072,8 @@
       <c r="D209" t="s">
         <v>579</v>
       </c>
-      <c r="E209" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5710,11 +5086,8 @@
       <c r="D210" t="s">
         <v>580</v>
       </c>
-      <c r="E210" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5727,11 +5100,8 @@
       <c r="D211" t="s">
         <v>463</v>
       </c>
-      <c r="E211" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5744,11 +5114,8 @@
       <c r="D212" t="s">
         <v>581</v>
       </c>
-      <c r="E212" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5761,11 +5128,8 @@
       <c r="D213" t="s">
         <v>463</v>
       </c>
-      <c r="E213" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5778,11 +5142,8 @@
       <c r="D214" t="s">
         <v>463</v>
       </c>
-      <c r="E214" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5795,11 +5156,8 @@
       <c r="D215" t="s">
         <v>463</v>
       </c>
-      <c r="E215" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5812,11 +5170,8 @@
       <c r="D216" t="s">
         <v>463</v>
       </c>
-      <c r="E216" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5829,11 +5184,8 @@
       <c r="D217" t="s">
         <v>582</v>
       </c>
-      <c r="E217" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5846,11 +5198,8 @@
       <c r="D218" t="s">
         <v>583</v>
       </c>
-      <c r="E218" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5863,11 +5212,8 @@
       <c r="D219" t="s">
         <v>463</v>
       </c>
-      <c r="E219" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5880,11 +5226,8 @@
       <c r="D220" t="s">
         <v>463</v>
       </c>
-      <c r="E220" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5897,11 +5240,8 @@
       <c r="D221" t="s">
         <v>584</v>
       </c>
-      <c r="E221" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5914,11 +5254,8 @@
       <c r="D222" t="s">
         <v>454</v>
       </c>
-      <c r="E222" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5931,11 +5268,8 @@
       <c r="D223" t="s">
         <v>585</v>
       </c>
-      <c r="E223" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5948,11 +5282,8 @@
       <c r="D224" t="s">
         <v>586</v>
       </c>
-      <c r="E224" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5965,11 +5296,8 @@
       <c r="D225" t="s">
         <v>463</v>
       </c>
-      <c r="E225" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5982,11 +5310,8 @@
       <c r="D226" t="s">
         <v>587</v>
       </c>
-      <c r="E226" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5999,11 +5324,8 @@
       <c r="D227" t="s">
         <v>463</v>
       </c>
-      <c r="E227" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6016,11 +5338,8 @@
       <c r="D228" t="s">
         <v>463</v>
       </c>
-      <c r="E228" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6033,11 +5352,8 @@
       <c r="D229" t="s">
         <v>588</v>
       </c>
-      <c r="E229" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6048,9 +5364,6 @@
         <v>462</v>
       </c>
       <c r="D230" t="s">
-        <v>463</v>
-      </c>
-      <c r="E230" t="s">
         <v>463</v>
       </c>
     </row>

--- a/data/merge_teamrankings.xlsx
+++ b/data/merge_teamrankings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="589">
   <si>
     <t>Index</t>
   </si>
@@ -2174,6 +2174,9 @@
       <c r="D2" t="s">
         <v>463</v>
       </c>
+      <c r="E2" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
@@ -2188,6 +2191,9 @@
       <c r="D3" t="s">
         <v>463</v>
       </c>
+      <c r="E3" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
@@ -2202,6 +2208,9 @@
       <c r="D4" t="s">
         <v>463</v>
       </c>
+      <c r="E4" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
@@ -2216,6 +2225,9 @@
       <c r="D5" t="s">
         <v>464</v>
       </c>
+      <c r="E5" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -2230,6 +2242,9 @@
       <c r="D6" t="s">
         <v>463</v>
       </c>
+      <c r="E6" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
@@ -2244,6 +2259,9 @@
       <c r="D7" t="s">
         <v>465</v>
       </c>
+      <c r="E7" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
@@ -2258,6 +2276,9 @@
       <c r="D8" t="s">
         <v>463</v>
       </c>
+      <c r="E8" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
@@ -2272,6 +2293,9 @@
       <c r="D9" t="s">
         <v>466</v>
       </c>
+      <c r="E9" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
@@ -2286,6 +2310,9 @@
       <c r="D10" t="s">
         <v>467</v>
       </c>
+      <c r="E10" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
@@ -2300,6 +2327,9 @@
       <c r="D11" t="s">
         <v>463</v>
       </c>
+      <c r="E11" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
@@ -2314,6 +2344,9 @@
       <c r="D12" t="s">
         <v>463</v>
       </c>
+      <c r="E12" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
@@ -2328,6 +2361,9 @@
       <c r="D13" t="s">
         <v>463</v>
       </c>
+      <c r="E13" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
@@ -2342,6 +2378,9 @@
       <c r="D14" t="s">
         <v>468</v>
       </c>
+      <c r="E14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
@@ -2356,6 +2395,9 @@
       <c r="D15" t="s">
         <v>463</v>
       </c>
+      <c r="E15" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
@@ -2370,8 +2412,11 @@
       <c r="D16" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2384,8 +2429,11 @@
       <c r="D17" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2398,8 +2446,11 @@
       <c r="D18" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2412,8 +2463,11 @@
       <c r="D19" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2426,8 +2480,11 @@
       <c r="D20" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2440,8 +2497,11 @@
       <c r="D21" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2454,8 +2514,11 @@
       <c r="D22" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2468,8 +2531,11 @@
       <c r="D23" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2482,8 +2548,11 @@
       <c r="D24" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2496,8 +2565,11 @@
       <c r="D25" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2510,8 +2582,11 @@
       <c r="D26" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2524,8 +2599,11 @@
       <c r="D27" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2538,8 +2616,11 @@
       <c r="D28" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2552,8 +2633,11 @@
       <c r="D29" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2566,8 +2650,11 @@
       <c r="D30" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2580,8 +2667,11 @@
       <c r="D31" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2594,8 +2684,11 @@
       <c r="D32" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2608,8 +2701,11 @@
       <c r="D33" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2622,8 +2718,11 @@
       <c r="D34" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2636,8 +2735,11 @@
       <c r="D35" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="D36" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2664,8 +2769,11 @@
       <c r="D37" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2678,8 +2786,11 @@
       <c r="D38" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2692,8 +2803,11 @@
       <c r="D39" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2706,8 +2820,11 @@
       <c r="D40" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2720,8 +2837,11 @@
       <c r="D41" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2734,8 +2854,11 @@
       <c r="D42" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2748,8 +2871,11 @@
       <c r="D43" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2762,8 +2888,11 @@
       <c r="D44" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2776,8 +2905,11 @@
       <c r="D45" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2790,8 +2922,11 @@
       <c r="D46" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2804,8 +2939,11 @@
       <c r="D47" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2818,8 +2956,11 @@
       <c r="D48" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2832,8 +2973,11 @@
       <c r="D49" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2846,8 +2990,11 @@
       <c r="D50" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2860,8 +3007,11 @@
       <c r="D51" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2874,8 +3024,11 @@
       <c r="D52" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2888,8 +3041,11 @@
       <c r="D53" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2902,8 +3058,11 @@
       <c r="D54" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2916,8 +3075,11 @@
       <c r="D55" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2930,8 +3092,11 @@
       <c r="D56" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2944,8 +3109,11 @@
       <c r="D57" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2958,8 +3126,11 @@
       <c r="D58" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2972,8 +3143,11 @@
       <c r="D59" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2986,8 +3160,11 @@
       <c r="D60" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3000,8 +3177,11 @@
       <c r="D61" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3014,8 +3194,11 @@
       <c r="D62" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3028,8 +3211,11 @@
       <c r="D63" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3042,8 +3228,11 @@
       <c r="D64" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3056,8 +3245,11 @@
       <c r="D65" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3070,8 +3262,11 @@
       <c r="D66" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3084,8 +3279,11 @@
       <c r="D67" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3098,8 +3296,11 @@
       <c r="D68" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3112,8 +3313,11 @@
       <c r="D69" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3126,8 +3330,11 @@
       <c r="D70" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3140,8 +3347,11 @@
       <c r="D71" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3154,8 +3364,11 @@
       <c r="D72" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3168,8 +3381,11 @@
       <c r="D73" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3182,8 +3398,11 @@
       <c r="D74" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3196,8 +3415,11 @@
       <c r="D75" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3210,8 +3432,11 @@
       <c r="D76" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3224,8 +3449,11 @@
       <c r="D77" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3238,8 +3466,11 @@
       <c r="D78" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3252,8 +3483,11 @@
       <c r="D79" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3266,8 +3500,11 @@
       <c r="D80" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3280,8 +3517,11 @@
       <c r="D81" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3294,8 +3534,11 @@
       <c r="D82" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3308,8 +3551,11 @@
       <c r="D83" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3322,8 +3568,11 @@
       <c r="D84" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3336,8 +3585,11 @@
       <c r="D85" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3350,8 +3602,11 @@
       <c r="D86" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3364,8 +3619,11 @@
       <c r="D87" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3378,8 +3636,11 @@
       <c r="D88" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3392,8 +3653,11 @@
       <c r="D89" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3406,8 +3670,11 @@
       <c r="D90" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3420,8 +3687,11 @@
       <c r="D91" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3434,8 +3704,11 @@
       <c r="D92" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3448,8 +3721,11 @@
       <c r="D93" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3462,8 +3738,11 @@
       <c r="D94" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3476,8 +3755,11 @@
       <c r="D95" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3490,8 +3772,11 @@
       <c r="D96" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3504,8 +3789,11 @@
       <c r="D97" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3518,8 +3806,11 @@
       <c r="D98" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3532,8 +3823,11 @@
       <c r="D99" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3546,8 +3840,11 @@
       <c r="D100" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3560,8 +3857,11 @@
       <c r="D101" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3574,8 +3874,11 @@
       <c r="D102" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3588,8 +3891,11 @@
       <c r="D103" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3602,8 +3908,11 @@
       <c r="D104" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3616,8 +3925,11 @@
       <c r="D105" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3630,8 +3942,11 @@
       <c r="D106" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3644,8 +3959,11 @@
       <c r="D107" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3658,8 +3976,11 @@
       <c r="D108" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3672,8 +3993,11 @@
       <c r="D109" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3686,8 +4010,11 @@
       <c r="D110" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3700,8 +4027,11 @@
       <c r="D111" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3714,8 +4044,11 @@
       <c r="D112" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3728,8 +4061,11 @@
       <c r="D113" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3742,8 +4078,11 @@
       <c r="D114" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3756,8 +4095,11 @@
       <c r="D115" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3770,8 +4112,11 @@
       <c r="D116" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3784,8 +4129,11 @@
       <c r="D117" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3798,8 +4146,11 @@
       <c r="D118" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3812,8 +4163,11 @@
       <c r="D119" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3826,8 +4180,11 @@
       <c r="D120" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3840,8 +4197,11 @@
       <c r="D121" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3854,8 +4214,11 @@
       <c r="D122" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3868,8 +4231,11 @@
       <c r="D123" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3882,8 +4248,11 @@
       <c r="D124" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3896,8 +4265,11 @@
       <c r="D125" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3910,8 +4282,11 @@
       <c r="D126" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3924,8 +4299,11 @@
       <c r="D127" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3938,8 +4316,11 @@
       <c r="D128" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3952,8 +4333,11 @@
       <c r="D129" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3966,8 +4350,11 @@
       <c r="D130" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3980,8 +4367,11 @@
       <c r="D131" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3994,8 +4384,11 @@
       <c r="D132" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4008,8 +4401,11 @@
       <c r="D133" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4022,8 +4418,11 @@
       <c r="D134" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4036,8 +4435,11 @@
       <c r="D135" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4050,8 +4452,11 @@
       <c r="D136" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4064,8 +4469,11 @@
       <c r="D137" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4078,8 +4486,11 @@
       <c r="D138" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4092,8 +4503,11 @@
       <c r="D139" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4106,8 +4520,11 @@
       <c r="D140" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4120,8 +4537,11 @@
       <c r="D141" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4134,8 +4554,11 @@
       <c r="D142" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4148,8 +4571,11 @@
       <c r="D143" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4162,8 +4588,11 @@
       <c r="D144" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4176,8 +4605,11 @@
       <c r="D145" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4190,8 +4622,11 @@
       <c r="D146" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4204,8 +4639,11 @@
       <c r="D147" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4218,8 +4656,11 @@
       <c r="D148" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4232,8 +4673,11 @@
       <c r="D149" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4246,8 +4690,11 @@
       <c r="D150" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4260,8 +4707,11 @@
       <c r="D151" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4274,8 +4724,11 @@
       <c r="D152" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4288,8 +4741,11 @@
       <c r="D153" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4302,8 +4758,11 @@
       <c r="D154" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4316,8 +4775,11 @@
       <c r="D155" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4330,8 +4792,11 @@
       <c r="D156" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4344,8 +4809,11 @@
       <c r="D157" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4358,8 +4826,11 @@
       <c r="D158" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4372,8 +4843,11 @@
       <c r="D159" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4386,8 +4860,11 @@
       <c r="D160" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4400,8 +4877,11 @@
       <c r="D161" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4414,8 +4894,11 @@
       <c r="D162" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4428,8 +4911,11 @@
       <c r="D163" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4442,8 +4928,11 @@
       <c r="D164" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4456,8 +4945,11 @@
       <c r="D165" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4470,8 +4962,11 @@
       <c r="D166" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4484,8 +4979,11 @@
       <c r="D167" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4498,8 +4996,11 @@
       <c r="D168" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4512,8 +5013,11 @@
       <c r="D169" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4526,8 +5030,11 @@
       <c r="D170" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4540,8 +5047,11 @@
       <c r="D171" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4554,8 +5064,11 @@
       <c r="D172" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4568,8 +5081,11 @@
       <c r="D173" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4582,8 +5098,11 @@
       <c r="D174" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4596,8 +5115,11 @@
       <c r="D175" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4610,8 +5132,11 @@
       <c r="D176" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4624,8 +5149,11 @@
       <c r="D177" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4638,8 +5166,11 @@
       <c r="D178" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4652,8 +5183,11 @@
       <c r="D179" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4666,8 +5200,11 @@
       <c r="D180" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4680,8 +5217,11 @@
       <c r="D181" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4694,8 +5234,11 @@
       <c r="D182" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4708,8 +5251,11 @@
       <c r="D183" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4722,8 +5268,11 @@
       <c r="D184" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4736,8 +5285,11 @@
       <c r="D185" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4750,8 +5302,11 @@
       <c r="D186" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4764,8 +5319,11 @@
       <c r="D187" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4778,8 +5336,11 @@
       <c r="D188" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4792,8 +5353,11 @@
       <c r="D189" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4806,8 +5370,11 @@
       <c r="D190" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4820,8 +5387,11 @@
       <c r="D191" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4834,8 +5404,11 @@
       <c r="D192" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4848,8 +5421,11 @@
       <c r="D193" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4862,8 +5438,11 @@
       <c r="D194" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4876,8 +5455,11 @@
       <c r="D195" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4890,8 +5472,11 @@
       <c r="D196" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4904,8 +5489,11 @@
       <c r="D197" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4918,8 +5506,11 @@
       <c r="D198" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4932,8 +5523,11 @@
       <c r="D199" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4946,8 +5540,11 @@
       <c r="D200" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4960,8 +5557,11 @@
       <c r="D201" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="E201" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4974,8 +5574,11 @@
       <c r="D202" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4988,8 +5591,11 @@
       <c r="D203" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5002,8 +5608,11 @@
       <c r="D204" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5016,8 +5625,11 @@
       <c r="D205" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5030,8 +5642,11 @@
       <c r="D206" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5044,8 +5659,11 @@
       <c r="D207" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5058,8 +5676,11 @@
       <c r="D208" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="E208" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5072,8 +5693,11 @@
       <c r="D209" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5086,8 +5710,11 @@
       <c r="D210" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5100,8 +5727,11 @@
       <c r="D211" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5114,8 +5744,11 @@
       <c r="D212" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5128,8 +5761,11 @@
       <c r="D213" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5142,8 +5778,11 @@
       <c r="D214" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5156,8 +5795,11 @@
       <c r="D215" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5170,8 +5812,11 @@
       <c r="D216" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5184,8 +5829,11 @@
       <c r="D217" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5198,8 +5846,11 @@
       <c r="D218" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5212,8 +5863,11 @@
       <c r="D219" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="E219" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5226,8 +5880,11 @@
       <c r="D220" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5240,8 +5897,11 @@
       <c r="D221" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="E221" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5254,8 +5914,11 @@
       <c r="D222" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5268,8 +5931,11 @@
       <c r="D223" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5282,8 +5948,11 @@
       <c r="D224" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5296,8 +5965,11 @@
       <c r="D225" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5310,8 +5982,11 @@
       <c r="D226" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5324,8 +5999,11 @@
       <c r="D227" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5338,8 +6016,11 @@
       <c r="D228" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5352,8 +6033,11 @@
       <c r="D229" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5364,6 +6048,9 @@
         <v>462</v>
       </c>
       <c r="D230" t="s">
+        <v>463</v>
+      </c>
+      <c r="E230" t="s">
         <v>463</v>
       </c>
     </row>

--- a/data/merge_teamrankings.xlsx
+++ b/data/merge_teamrankings.xlsx
@@ -37,15 +37,63 @@
     <t xml:space="preserve">override</t>
   </si>
   <si>
+    <t xml:space="preserve">Abilene Christian Wildcats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force Falcons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akron Zips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alabama A&amp;M Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alabama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alabama Crimson Tide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Alabama</t>
+  </si>
+  <si>
     <t xml:space="preserve">Albright Lions</t>
   </si>
   <si>
     <t xml:space="preserve">ALB</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Alcorn State Braves</t>
   </si>
   <si>
@@ -61,24 +109,123 @@
     <t xml:space="preserve">App State</t>
   </si>
   <si>
+    <t xml:space="preserve">Arizona State Sun Devils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona Wildcats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas Razorbacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas State Red Wolves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas St</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arkansas-Pine Bluff Golden Lions</t>
   </si>
   <si>
     <t xml:space="preserve">UAPB</t>
   </si>
   <si>
+    <t xml:space="preserve">Army Black Knights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auburn Tigers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auburn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Austin Peay Governors</t>
   </si>
   <si>
     <t xml:space="preserve">APSU</t>
   </si>
   <si>
+    <t xml:space="preserve">Ball State Cardinals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baylor Bears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baylor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bethune-Cookman Wildcats</t>
   </si>
   <si>
     <t xml:space="preserve">BCU</t>
   </si>
   <si>
+    <t xml:space="preserve">Boise State Broncos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boise St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston College Eagles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston Col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowling Green Falcons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowling Grn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bryant Bulldogs</t>
   </si>
   <si>
@@ -91,6 +238,39 @@
     <t xml:space="preserve">BUCK</t>
   </si>
   <si>
+    <t xml:space="preserve">Buffalo Bulls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYU Cougars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cal Poly Mustangs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX El Paso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California Golden Bears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campbell Fighting Camels</t>
   </si>
   <si>
@@ -103,24 +283,96 @@
     <t xml:space="preserve">CARK</t>
   </si>
   <si>
+    <t xml:space="preserve">Central Connecticut Blue Devils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecticut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Michigan Chippewas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Mich</t>
+  </si>
+  <si>
     <t xml:space="preserve">Charleston Southern Buccaneers</t>
   </si>
   <si>
     <t xml:space="preserve">CHSO</t>
   </si>
   <si>
+    <t xml:space="preserve">Charlotte 49ers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chattanooga Mocs</t>
   </si>
   <si>
     <t xml:space="preserve">UTC</t>
   </si>
   <si>
+    <t xml:space="preserve">Cincinnati Bearcats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cincinnati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clemson Tigers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clemson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal Carolina Chanticleers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal Car</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colgate Raiders</t>
   </si>
   <si>
     <t xml:space="preserve">COLG</t>
   </si>
   <si>
+    <t xml:space="preserve">Colorado Buffaloes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado State Rams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado St</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delaware Fightin Blue Hens</t>
   </si>
   <si>
@@ -133,12 +385,30 @@
     <t xml:space="preserve">DSU</t>
   </si>
   <si>
+    <t xml:space="preserve">Duke Blue Devils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duke</t>
+  </si>
+  <si>
     <t xml:space="preserve">Duquesne Dukes</t>
   </si>
   <si>
     <t xml:space="preserve">DUQ</t>
   </si>
   <si>
+    <t xml:space="preserve">East Carolina Pirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E Carolina</t>
+  </si>
+  <si>
     <t xml:space="preserve">East Tennessee State Buccaneers</t>
   </si>
   <si>
@@ -151,7 +421,22 @@
     <t xml:space="preserve">EIU</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">Eastern Kentucky Colonels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Michigan Eagles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E Michigan</t>
   </si>
   <si>
     <t xml:space="preserve">Eastern Washington Eagles</t>
@@ -166,12 +451,66 @@
     <t xml:space="preserve">ELON</t>
   </si>
   <si>
+    <t xml:space="preserve">Florida A&amp;M Rattlers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Atlantic Owls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fla Atlantic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Gators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida International Panthers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Intl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida State Seminoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida St</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fort Valley State Wildcats</t>
   </si>
   <si>
     <t xml:space="preserve">FVS</t>
   </si>
   <si>
+    <t xml:space="preserve">Fresno State Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresno St</t>
+  </si>
+  <si>
     <t xml:space="preserve">Furman Paladins</t>
   </si>
   <si>
@@ -184,12 +523,57 @@
     <t xml:space="preserve">GWEB</t>
   </si>
   <si>
+    <t xml:space="preserve">Georgia Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia Southern Eagles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA Southern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia State Panthers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia Tech Yellow Jackets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA Tech</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grambling Tigers</t>
   </si>
   <si>
     <t xml:space="preserve">GRAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Hawaii Rainbow Warriors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaii</t>
+  </si>
+  <si>
     <t xml:space="preserve">Holy Cross Crusaders</t>
   </si>
   <si>
@@ -202,6 +586,15 @@
     <t xml:space="preserve">HCU</t>
   </si>
   <si>
+    <t xml:space="preserve">Houston Cougars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston</t>
+  </si>
+  <si>
     <t xml:space="preserve">Howard Bison</t>
   </si>
   <si>
@@ -220,42 +613,150 @@
     <t xml:space="preserve">IDHO</t>
   </si>
   <si>
+    <t xml:space="preserve">Illinois Fighting Illini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois</t>
+  </si>
+  <si>
     <t xml:space="preserve">Incarnate Word Cardinals</t>
   </si>
   <si>
     <t xml:space="preserve">UIW</t>
   </si>
   <si>
+    <t xml:space="preserve">Indiana Hoosiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indiana State Sycamores</t>
   </si>
   <si>
     <t xml:space="preserve">INST</t>
   </si>
   <si>
+    <t xml:space="preserve">Iowa Hawkeyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa State Cyclones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa St</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jackson State Tigers</t>
   </si>
   <si>
     <t xml:space="preserve">JKST</t>
   </si>
   <si>
+    <t xml:space="preserve">Jacksonville State Gamecocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JVST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jksnville St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Madison Dukes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Mad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas Jayhawks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas State Wildcats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas St</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kennesaw State Owls</t>
   </si>
   <si>
     <t xml:space="preserve">KENN</t>
   </si>
   <si>
+    <t xml:space="preserve">Kent State Golden Flashes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky Wildcats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W Kentucky</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lafayette Leopards</t>
   </si>
   <si>
     <t xml:space="preserve">LAF</t>
   </si>
   <si>
+    <t xml:space="preserve">Liberty Flames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Long Island University Sharks</t>
   </si>
   <si>
     <t xml:space="preserve">LIU</t>
   </si>
   <si>
+    <t xml:space="preserve">Louisiana Ragin Cajuns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Louisiana Tech Bulldogs</t>
   </si>
   <si>
@@ -265,24 +766,72 @@
     <t xml:space="preserve">LA Tech</t>
   </si>
   <si>
+    <t xml:space="preserve">Louisville Cardinals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSU Tigers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maine Black Bears</t>
   </si>
   <si>
     <t xml:space="preserve">ME</t>
   </si>
   <si>
+    <t xml:space="preserve">Marshall Thundering Herd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland Terrapins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Massachusetts Minutemen</t>
   </si>
   <si>
     <t xml:space="preserve">MASS</t>
   </si>
   <si>
+    <t xml:space="preserve">U Mass</t>
+  </si>
+  <si>
     <t xml:space="preserve">McNeese Cowboys</t>
   </si>
   <si>
     <t xml:space="preserve">MCN</t>
   </si>
   <si>
+    <t xml:space="preserve">Memphis Tigers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Methodist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memphis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merchant Marine Mariners</t>
   </si>
   <si>
@@ -295,6 +844,93 @@
     <t xml:space="preserve">MRMK</t>
   </si>
   <si>
+    <t xml:space="preserve">Miami (OH) RedHawks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami (OH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami Hurricanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan State Spartans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan Wolverines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Tennessee Blue Raiders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Tenn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota Golden Gophers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mississippi State Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Mississippi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missouri State Bears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missouri Tigers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mississippi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monmouth Hawks</t>
   </si>
   <si>
@@ -307,12 +943,87 @@
     <t xml:space="preserve">MORG</t>
   </si>
   <si>
+    <t xml:space="preserve">Murray State Racers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy Midshipmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC State Wolfpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebraska Cornhuskers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebraska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada Wolf Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Hampshire Wildcats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico Lobos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico State Aggies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N Mex State</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nicholls Colonels</t>
   </si>
   <si>
     <t xml:space="preserve">NICH</t>
   </si>
   <si>
+    <t xml:space="preserve">Norfolk State Spartans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORF</t>
+  </si>
+  <si>
     <t xml:space="preserve">North Alabama Lions</t>
   </si>
   <si>
@@ -331,12 +1042,30 @@
     <t xml:space="preserve">NCCU</t>
   </si>
   <si>
+    <t xml:space="preserve">North Carolina Tar Heels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N Carolina</t>
+  </si>
+  <si>
     <t xml:space="preserve">North Dakota Fighting Hawks</t>
   </si>
   <si>
     <t xml:space="preserve">UND</t>
   </si>
   <si>
+    <t xml:space="preserve">North Texas Mean Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Texas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Northern Arizona Lumberjacks</t>
   </si>
   <si>
@@ -349,6 +1078,15 @@
     <t xml:space="preserve">UNCO</t>
   </si>
   <si>
+    <t xml:space="preserve">Northern Illinois Huskies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N Illinois</t>
+  </si>
+  <si>
     <t xml:space="preserve">Northern Iowa Panthers</t>
   </si>
   <si>
@@ -361,6 +1099,111 @@
     <t xml:space="preserve">NWST</t>
   </si>
   <si>
+    <t xml:space="preserve">Northwestern Wildcats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northwestern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notre Dame Fighting Irish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notre Dame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio Bobcats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OHIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio State Buckeyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma Sooners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma State Cowboys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Dominion Monarchs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Dominion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ole Miss Rebels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon Ducks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon State Beavers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penn State Nittany Lions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penn St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pittsburgh Panthers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pittsburgh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portland State Vikings</t>
   </si>
   <si>
@@ -373,12 +1216,30 @@
     <t xml:space="preserve">PV</t>
   </si>
   <si>
+    <t xml:space="preserve">Purdue Boilermakers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purdue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rhode Island Rams</t>
   </si>
   <si>
     <t xml:space="preserve">URI</t>
   </si>
   <si>
+    <t xml:space="preserve">Rice Owls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Richmond Spiders</t>
   </si>
   <si>
@@ -391,6 +1252,15 @@
     <t xml:space="preserve">RMU</t>
   </si>
   <si>
+    <t xml:space="preserve">Rutgers Scarlet Knights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutgers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sacramento State Hornets</t>
   </si>
   <si>
@@ -403,12 +1273,39 @@
     <t xml:space="preserve">SHU</t>
   </si>
   <si>
+    <t xml:space="preserve">Sam Houston Bearkats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam Hous St</t>
+  </si>
+  <si>
     <t xml:space="preserve">Samford Bulldogs</t>
   </si>
   <si>
     <t xml:space="preserve">SAM</t>
   </si>
   <si>
+    <t xml:space="preserve">San Diego State Aztecs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San JosÃ© State Spartans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Jose St</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE Louisiana Lions</t>
   </si>
   <si>
@@ -427,6 +1324,15 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
+    <t xml:space="preserve">South Carolina Gamecocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Carolina</t>
+  </si>
+  <si>
     <t xml:space="preserve">South Carolina State Bulldogs</t>
   </si>
   <si>
@@ -475,6 +1381,15 @@
     <t xml:space="preserve">SFPA</t>
   </si>
   <si>
+    <t xml:space="preserve">Stanford Cardinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanford</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stephen F. Austin Lumberjacks</t>
   </si>
   <si>
@@ -487,6 +1402,15 @@
     <t xml:space="preserve">STBK</t>
   </si>
   <si>
+    <t xml:space="preserve">Syracuse Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syracuse</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tarleton State Texans</t>
   </si>
   <si>
@@ -499,7 +1423,13 @@
     <t xml:space="preserve">TCU</t>
   </si>
   <si>
-    <t xml:space="preserve">TX Christian</t>
+    <t xml:space="preserve">Temple Owls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temple</t>
   </si>
   <si>
     <t xml:space="preserve">Tennessee State Tigers</t>
@@ -514,43 +1444,160 @@
     <t xml:space="preserve">TNTC</t>
   </si>
   <si>
+    <t xml:space="preserve">Tennessee Volunteers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas A&amp;M Aggies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas A&amp;M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Texas A&amp;M-Commerce Lions</t>
   </si>
   <si>
     <t xml:space="preserve">TAMC</t>
   </si>
   <si>
+    <t xml:space="preserve">Texas Longhorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Texas Southern Tigers</t>
   </si>
   <si>
     <t xml:space="preserve">TXSO</t>
   </si>
   <si>
+    <t xml:space="preserve">Texas State Bobcats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Tech Red Raiders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Tech</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Citadel Bulldogs</t>
   </si>
   <si>
     <t xml:space="preserve">CIT</t>
   </si>
   <si>
+    <t xml:space="preserve">Toledo Rockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toledo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Towson Tigers</t>
   </si>
   <si>
     <t xml:space="preserve">TOW</t>
   </si>
   <si>
+    <t xml:space="preserve">Troy Trojans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TROY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulane Green Wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TULN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulsa Golden Hurricane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAB Blazers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAB</t>
+  </si>
+  <si>
     <t xml:space="preserve">UC Davis Aggies</t>
   </si>
   <si>
     <t xml:space="preserve">UCD</t>
   </si>
   <si>
+    <t xml:space="preserve">UCF Knights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCLA Bruins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCLA</t>
+  </si>
+  <si>
     <t xml:space="preserve">UConn Huskies</t>
   </si>
   <si>
     <t xml:space="preserve">CONN</t>
   </si>
   <si>
-    <t xml:space="preserve">Connecticut</t>
+    <t xml:space="preserve">UL Monroe Warhawks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UL Monroe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNLV Rebels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNLV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USC Trojans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USC</t>
   </si>
   <si>
     <t xml:space="preserve">UT Martin Skyhawks</t>
@@ -559,13 +1606,49 @@
     <t xml:space="preserve">UTM</t>
   </si>
   <si>
+    <t xml:space="preserve">Utah State Aggies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah Tech Trailblazers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah Utes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah</t>
+  </si>
+  <si>
     <t xml:space="preserve">UTEP Miners</t>
   </si>
   <si>
     <t xml:space="preserve">UTEP</t>
   </si>
   <si>
-    <t xml:space="preserve">TX El Paso</t>
+    <t xml:space="preserve">UTSA Roadrunners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanderbilt Commodores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanderbilt</t>
   </si>
   <si>
     <t xml:space="preserve">Villanova Wildcats</t>
@@ -574,6 +1657,24 @@
     <t xml:space="preserve">VILL</t>
   </si>
   <si>
+    <t xml:space="preserve">Virginia Cavaliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia Tech Hokies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA Tech</t>
+  </si>
+  <si>
     <t xml:space="preserve">VMI Keydets</t>
   </si>
   <si>
@@ -586,12 +1687,48 @@
     <t xml:space="preserve">WAG</t>
   </si>
   <si>
+    <t xml:space="preserve">Wake Forest Demon Deacons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wake Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington Huskies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington State Cougars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wash State</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weber State Wildcats</t>
   </si>
   <si>
     <t xml:space="preserve">WEB</t>
   </si>
   <si>
+    <t xml:space="preserve">West Virginia Mountaineers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WVU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W Virginia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Western Carolina Catamounts</t>
   </si>
   <si>
@@ -610,7 +1747,10 @@
     <t xml:space="preserve">WKU</t>
   </si>
   <si>
-    <t xml:space="preserve">W Kentucky</t>
+    <t xml:space="preserve">Western Michigan Broncos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WMU</t>
   </si>
   <si>
     <t xml:space="preserve">William &amp; Mary Tribe</t>
@@ -619,1174 +1759,34 @@
     <t xml:space="preserve">W&amp;M</t>
   </si>
   <si>
+    <t xml:space="preserve">Wisconsin Badgers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisconsin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wofford Terriers</t>
   </si>
   <si>
     <t xml:space="preserve">WOF</t>
   </si>
   <si>
+    <t xml:space="preserve">Wyoming Cowboys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyoming</t>
+  </si>
+  <si>
     <t xml:space="preserve">Youngstown State Penguins</t>
   </si>
   <si>
     <t xml:space="preserve">YSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Force Falcons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akron Zips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alabama A&amp;M Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alabama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC State Wolfpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arizona Wildcats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arizona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arizona State Sun Devils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arizona St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkansas Razorbacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkansas State Red Wolves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkansas St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Army Black Knights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Army</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auburn Tigers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auburn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ball State Cardinals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ball St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baylor Bears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boise State Broncos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boise St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston College Eagles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston Col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowling Green Falcons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowling Grn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffalo Bulls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BYU Cougars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BYU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California Golden Bears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Michigan Chippewas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte 49ers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cincinnati Bearcats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cincinnati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clemson Tigers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clemson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coastal Carolina Chanticleers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coastal Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado Buffaloes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado State Rams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Connecticut Blue Devils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duke Blue Devils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Carolina Pirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Michigan Eagles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida Atlantic Owls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fla Atlantic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida A&amp;M Rattlers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida International Panthers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida Intl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida State Seminoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresno State Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresno St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia Southern Eagles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA Southern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia Tech Yellow Jackets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA Tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia State Panthers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawaii Rainbow Warriors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawaii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houston Cougars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Fighting Illini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiana Hoosiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa Hawkeyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa State Cyclones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Madison Dukes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Mad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacksonville State Gamecocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JVST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jksnville St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansas Jayhawks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansas State Wildcats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansas St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent State Golden Flashes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Kentucky Colonels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kentucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah Tech Trailblazers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberty Flames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisiana Ragin Cajuns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisville Cardinals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSU Tigers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Thundering Herd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maryland Terrapins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maryland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Hampshire Wildcats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memphis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miami Hurricanes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miami (OH) RedHawks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miami (OH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Michigan Broncos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michigan State Spartans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michigan St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Tennessee Blue Raiders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Tenn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minnesota Golden Gophers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minnesota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murray State Racers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miss State</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missouri Tigers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mississippi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missouri State Bears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Carolina Tar Heels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Illinois Huskies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Mexico State Aggies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N Mex State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navy Midshipmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAVY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norfolk State Spartans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebraska Cornhuskers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebraska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevada Wolf Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Mexico Lobos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Texas Mean Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northwestern Wildcats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northwestern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notre Dame Fighting Irish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notre Dame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ohio Bobcats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OHIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ohio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ohio State Buckeyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ohio St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oklahoma Sooners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oklahoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oklahoma State Cowboys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OKST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oklahoma St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old Dominion Monarchs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old Dominion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oregon Ducks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oregon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oregon State Beavers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oregon St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penn State Nittany Lions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penn St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pittsburgh Panthers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PITT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pittsburgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purdue Boilermakers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purdue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice Owls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutgers Scarlet Knights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutgers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alabama Crimson Tide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S Alabama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Carolina Gamecocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida Gators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memphis Tigers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S Methodist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mississippi State Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S Mississippi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam Houston Bearkats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam Hous St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Diego State Aztecs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Diego St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San JosÃ© State Spartans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Jose St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanford Cardinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syracuse Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syracuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temple Owls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tennessee Volunteers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tennessee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Longhorns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas A&amp;M Aggies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TA&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas A&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas State Bobcats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Tech Red Raiders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toledo Rockets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toledo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troy Trojans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TROY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulane Green Wave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TULN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulsa Golden Hurricane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abilene Christian Wildcats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal Poly Mustangs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ole Miss Rebels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U Mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAB Blazers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCF Knights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCLA Bruins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UL Monroe Warhawks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ULM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UL Monroe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNLV Rebels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNLV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USC Trojans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah Utes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah State Aggies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTSA Roadrunners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia Tech Hokies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA Tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanderbilt Commodores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanderbilt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia Cavaliers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kentucky Wildcats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michigan Wolverines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Virginia Mountaineers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WVU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wake Forest Demon Deacons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wake Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington State Cougars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wash State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington Huskies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisconsin Badgers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisconsin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyoming Cowboys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WYO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyoming</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1796,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1826,12 +1826,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1883,7 +1877,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1897,10 +1891,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2115,17 +2105,17 @@
   </sheetPr>
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E93" activeCellId="0" sqref="E93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E102" activeCellId="0" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="2.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,7 +2137,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2159,38 +2149,38 @@
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
@@ -2198,2964 +2188,2966 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="3"/>
+        <v>234</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>7</v>
+        <v>244</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>196</v>
+        <v>12</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>7</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="E118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>176</v>
+        <v>329</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>323</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="E144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>355</v>
+        <v>12</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>358</v>
+        <v>12</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>369</v>
+        <v>12</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>372</v>
+        <v>12</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>378</v>
+        <v>12</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>382</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>395</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>399</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>399</v>
+        <v>12</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>43</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>404</v>
+        <v>12</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>410</v>
+        <v>12</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>413</v>
+        <v>12</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E169" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>427</v>
+        <v>12</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E176" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
@@ -5163,847 +5155,845 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="E180" s="3"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>454</v>
+        <v>12</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>466</v>
+        <v>12</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>472</v>
+        <v>12</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>481</v>
+        <v>12</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>372</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>394</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>487</v>
+        <v>12</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E197" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>511</v>
+        <v>12</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="E201" s="3"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>523</v>
+        <v>12</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>529</v>
+        <v>247</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="E207" s="3"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>398</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="E209" s="3"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>540</v>
+        <v>12</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E213" s="3"/>
+        <v>550</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E214" s="3"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>549</v>
+        <v>12</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E216" s="3"/>
+        <v>557</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E218" s="3"/>
+        <v>563</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>560</v>
+        <v>12</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>560</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E221" s="3"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>350</v>
+        <v>12</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>382</v>
+        <v>12</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>381</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>573</v>
+        <v>286</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>576</v>
+        <v>12</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>582</v>
+        <v>12</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>588</v>
+        <v>12</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/merge_teamrankings.xlsx
+++ b/data/merge_teamrankings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="590">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -199,6 +199,9 @@
     <t xml:space="preserve">BCU</t>
   </si>
   <si>
+    <t xml:space="preserve"> ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boise State Broncos</t>
   </si>
   <si>
@@ -238,6 +241,9 @@
     <t xml:space="preserve">BUCK</t>
   </si>
   <si>
+    <t xml:space="preserve">? </t>
+  </si>
+  <si>
     <t xml:space="preserve">Buffalo Bulls</t>
   </si>
   <si>
@@ -947,9 +953,6 @@
   </si>
   <si>
     <t xml:space="preserve">MUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ?</t>
   </si>
   <si>
     <t xml:space="preserve">Navy Midshipmen</t>
@@ -1796,7 +1799,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1826,6 +1829,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1877,7 +1886,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1894,6 +1903,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1903,23 +1916,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2105,8 +2101,8 @@
   </sheetPr>
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E102" activeCellId="0" sqref="E102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A213" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E123" activeCellId="0" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2216,8 +2212,8 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2349,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,7 +2400,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,7 +2451,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,13 +2459,13 @@
         <v>131</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>12</v>
@@ -2480,13 +2476,13 @@
         <v>220</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>12</v>
@@ -2497,13 +2493,13 @@
         <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>12</v>
@@ -2514,16 +2510,16 @@
         <v>136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,16 +2527,16 @@
         <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,13 +2544,13 @@
         <v>205</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>12</v>
@@ -2565,13 +2561,13 @@
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>12</v>
@@ -2582,13 +2578,13 @@
         <v>206</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -2599,13 +2595,13 @@
         <v>186</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>12</v>
@@ -2616,16 +2612,16 @@
         <v>133</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,16 +2629,16 @@
         <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,13 +2646,13 @@
         <v>213</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
@@ -2667,13 +2663,13 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>12</v>
@@ -2684,16 +2680,16 @@
         <v>177</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,13 +2697,13 @@
         <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>12</v>
@@ -2718,16 +2714,16 @@
         <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,13 +2731,13 @@
         <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>12</v>
@@ -2752,13 +2748,13 @@
         <v>210</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>12</v>
@@ -2769,13 +2765,13 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>12</v>
@@ -2786,16 +2782,16 @@
         <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,13 +2799,13 @@
         <v>150</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>12</v>
@@ -2820,13 +2816,13 @@
         <v>221</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
@@ -2837,16 +2833,16 @@
         <v>207</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,16 +2850,16 @@
         <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,13 +2867,13 @@
         <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>12</v>
@@ -2888,16 +2884,16 @@
         <v>178</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,13 +2901,13 @@
         <v>166</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>12</v>
@@ -2922,16 +2918,16 @@
         <v>190</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,10 +2935,10 @@
         <v>227</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>12</v>
@@ -2956,13 +2952,13 @@
         <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>8</v>
@@ -2973,13 +2969,13 @@
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>12</v>
@@ -2990,16 +2986,16 @@
         <v>212</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,16 +3003,16 @@
         <v>132</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,13 +3020,13 @@
         <v>79</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>8</v>
@@ -3041,13 +3037,13 @@
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>12</v>
@@ -3058,16 +3054,16 @@
         <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,13 +3071,13 @@
         <v>158</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>12</v>
@@ -3092,13 +3088,13 @@
         <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>12</v>
@@ -3109,10 +3105,10 @@
         <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>12</v>
@@ -3126,13 +3122,13 @@
         <v>147</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>12</v>
@@ -3143,16 +3139,16 @@
         <v>11</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,16 +3156,16 @@
         <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,13 +3173,13 @@
         <v>189</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>12</v>
@@ -3194,13 +3190,13 @@
         <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>12</v>
@@ -3211,13 +3207,13 @@
         <v>156</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>12</v>
@@ -3228,13 +3224,13 @@
         <v>34</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>12</v>
@@ -3245,16 +3241,16 @@
         <v>78</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,13 +3258,13 @@
         <v>19</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>12</v>
@@ -3279,16 +3275,16 @@
         <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,16 +3292,16 @@
         <v>162</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,13 +3309,13 @@
         <v>149</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>12</v>
@@ -3330,16 +3326,16 @@
         <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,16 +3343,16 @@
         <v>109</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,10 +3360,10 @@
         <v>228</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>12</v>
@@ -3381,16 +3377,16 @@
         <v>161</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,16 +3394,16 @@
         <v>18</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,13 +3411,13 @@
         <v>222</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>12</v>
@@ -3432,16 +3428,16 @@
         <v>167</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,13 +3445,13 @@
         <v>7</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>12</v>
@@ -3466,13 +3462,13 @@
         <v>44</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>12</v>
@@ -3483,16 +3479,16 @@
         <v>214</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,13 +3496,13 @@
         <v>151</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>12</v>
@@ -3517,13 +3513,13 @@
         <v>28</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>12</v>
@@ -3534,13 +3530,13 @@
         <v>128</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>12</v>
@@ -3551,13 +3547,13 @@
         <v>225</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>12</v>
@@ -3568,16 +3564,16 @@
         <v>21</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,13 +3581,13 @@
         <v>168</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>12</v>
@@ -3602,16 +3598,16 @@
         <v>200</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,16 +3615,16 @@
         <v>170</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,13 +3632,13 @@
         <v>14</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>12</v>
@@ -3653,16 +3649,16 @@
         <v>72</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,13 +3666,13 @@
         <v>96</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>12</v>
@@ -3687,16 +3683,16 @@
         <v>110</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,13 +3700,13 @@
         <v>138</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>12</v>
@@ -3721,13 +3717,13 @@
         <v>25</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>12</v>
@@ -3738,16 +3734,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,13 +3751,13 @@
         <v>121</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>12</v>
@@ -3772,13 +3768,13 @@
         <v>56</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>12</v>
@@ -3789,16 +3785,16 @@
         <v>219</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,16 +3802,16 @@
         <v>146</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,16 +3819,16 @@
         <v>31</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,16 +3836,16 @@
         <v>154</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,16 +3853,16 @@
         <v>54</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,13 +3870,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>12</v>
@@ -3891,13 +3887,13 @@
         <v>157</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>12</v>
@@ -3908,13 +3904,13 @@
         <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>12</v>
@@ -3925,16 +3921,16 @@
         <v>218</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,13 +3938,13 @@
         <v>183</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>12</v>
@@ -3959,13 +3955,13 @@
         <v>26</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>12</v>
@@ -3976,16 +3972,16 @@
         <v>175</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,13 +3989,13 @@
         <v>83</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>8</v>
@@ -4010,16 +4006,16 @@
         <v>215</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,16 +4023,16 @@
         <v>75</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4044,16 +4040,16 @@
         <v>145</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,16 +4057,16 @@
         <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4078,13 +4074,13 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>12</v>
@@ -4095,16 +4091,16 @@
         <v>81</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,13 +4108,13 @@
         <v>216</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E118" s="3"/>
     </row>
@@ -4127,13 +4123,13 @@
         <v>4</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>12</v>
@@ -4144,13 +4140,13 @@
         <v>55</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>8</v>
@@ -4161,13 +4157,13 @@
         <v>27</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>12</v>
@@ -4178,13 +4174,13 @@
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>12</v>
@@ -4195,16 +4191,16 @@
         <v>124</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4212,13 +4208,13 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>8</v>
@@ -4229,10 +4225,10 @@
         <v>217</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>12</v>
@@ -4246,10 +4242,10 @@
         <v>193</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>12</v>
@@ -4263,10 +4259,10 @@
         <v>187</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>12</v>
@@ -4280,13 +4276,13 @@
         <v>199</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>12</v>
@@ -4297,10 +4293,10 @@
         <v>122</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>12</v>
@@ -4314,13 +4310,13 @@
         <v>68</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>12</v>
@@ -4331,10 +4327,10 @@
         <v>92</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>12</v>
@@ -4348,10 +4344,10 @@
         <v>32</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>12</v>
@@ -4365,13 +4361,13 @@
         <v>172</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>12</v>
@@ -4382,10 +4378,10 @@
         <v>46</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>12</v>
@@ -4399,10 +4395,10 @@
         <v>53</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>12</v>
@@ -4416,13 +4412,13 @@
         <v>57</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>12</v>
@@ -4433,13 +4429,13 @@
         <v>90</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>12</v>
@@ -4450,13 +4446,13 @@
         <v>169</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>12</v>
@@ -4467,13 +4463,13 @@
         <v>29</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E139" s="3"/>
     </row>
@@ -4482,13 +4478,13 @@
         <v>103</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>12</v>
@@ -4499,13 +4495,13 @@
         <v>192</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>12</v>
@@ -4516,13 +4512,13 @@
         <v>66</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>12</v>
@@ -4533,16 +4529,16 @@
         <v>45</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,13 +4546,13 @@
         <v>48</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E144" s="3"/>
     </row>
@@ -4565,13 +4561,13 @@
         <v>211</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>12</v>
@@ -4582,13 +4578,13 @@
         <v>65</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>12</v>
@@ -4599,13 +4595,13 @@
         <v>160</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>12</v>
@@ -4616,10 +4612,10 @@
         <v>171</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>12</v>
@@ -4633,10 +4629,10 @@
         <v>179</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>12</v>
@@ -4650,13 +4646,13 @@
         <v>116</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>12</v>
@@ -4667,10 +4663,10 @@
         <v>143</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>12</v>
@@ -4684,13 +4680,13 @@
         <v>50</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>12</v>
@@ -4701,10 +4697,10 @@
         <v>191</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>12</v>
@@ -4718,10 +4714,10 @@
         <v>62</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>12</v>
@@ -4735,13 +4731,13 @@
         <v>86</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>12</v>
@@ -4752,10 +4748,10 @@
         <v>112</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>12</v>
@@ -4769,10 +4765,10 @@
         <v>195</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>12</v>
@@ -4786,13 +4782,13 @@
         <v>5</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>12</v>
@@ -4803,10 +4799,10 @@
         <v>117</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>12</v>
@@ -4818,13 +4814,13 @@
         <v>38</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>12</v>
@@ -4835,13 +4831,13 @@
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>12</v>
@@ -4852,10 +4848,10 @@
         <v>107</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>12</v>
@@ -4869,16 +4865,16 @@
         <v>176</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,10 +4882,10 @@
         <v>180</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>12</v>
@@ -4903,13 +4899,13 @@
         <v>36</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>12</v>
@@ -4920,10 +4916,10 @@
         <v>224</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>12</v>
@@ -4937,10 +4933,10 @@
         <v>67</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>12</v>
@@ -4954,16 +4950,16 @@
         <v>85</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,10 +4967,10 @@
         <v>159</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>12</v>
@@ -4988,10 +4984,10 @@
         <v>98</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>12</v>
@@ -5005,16 +5001,16 @@
         <v>97</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,10 +5018,10 @@
         <v>135</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>12</v>
@@ -5039,10 +5035,10 @@
         <v>80</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>12</v>
@@ -5056,13 +5052,13 @@
         <v>88</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>12</v>
@@ -5073,10 +5069,10 @@
         <v>100</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>12</v>
@@ -5090,10 +5086,10 @@
         <v>64</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>12</v>
@@ -5107,13 +5103,13 @@
         <v>13</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>12</v>
@@ -5124,10 +5120,10 @@
         <v>226</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>12</v>
@@ -5141,10 +5137,10 @@
         <v>196</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>12</v>
@@ -5158,13 +5154,13 @@
         <v>194</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E180" s="3"/>
     </row>
@@ -5173,10 +5169,10 @@
         <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>12</v>
@@ -5190,10 +5186,10 @@
         <v>61</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>12</v>
@@ -5207,13 +5203,13 @@
         <v>35</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>12</v>
@@ -5224,13 +5220,13 @@
         <v>87</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>12</v>
@@ -5241,10 +5237,10 @@
         <v>129</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>12</v>
@@ -5258,13 +5254,13 @@
         <v>174</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>12</v>
@@ -5275,10 +5271,10 @@
         <v>23</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>12</v>
@@ -5292,13 +5288,13 @@
         <v>140</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>12</v>
@@ -5309,13 +5305,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>12</v>
@@ -5326,10 +5322,10 @@
         <v>123</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>12</v>
@@ -5343,13 +5339,13 @@
         <v>155</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>12</v>
@@ -5360,10 +5356,10 @@
         <v>201</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>12</v>
@@ -5377,13 +5373,13 @@
         <v>30</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>12</v>
@@ -5394,13 +5390,13 @@
         <v>185</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>12</v>
@@ -5411,13 +5407,13 @@
         <v>120</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>12</v>
@@ -5428,13 +5424,13 @@
         <v>127</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>12</v>
@@ -5445,10 +5441,10 @@
         <v>148</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>12</v>
@@ -5462,13 +5458,13 @@
         <v>60</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>12</v>
@@ -5479,13 +5475,13 @@
         <v>93</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>12</v>
@@ -5496,16 +5492,16 @@
         <v>141</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,13 +5509,13 @@
         <v>51</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E201" s="3"/>
     </row>
@@ -5528,13 +5524,13 @@
         <v>181</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>12</v>
@@ -5545,13 +5541,13 @@
         <v>137</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>12</v>
@@ -5562,10 +5558,10 @@
         <v>89</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>12</v>
@@ -5579,13 +5575,13 @@
         <v>198</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>12</v>
@@ -5596,13 +5592,13 @@
         <v>33</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>8</v>
@@ -5613,13 +5609,13 @@
         <v>182</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E207" s="3"/>
     </row>
@@ -5628,16 +5624,16 @@
         <v>125</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5645,13 +5641,13 @@
         <v>223</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E209" s="3"/>
     </row>
@@ -5660,13 +5656,13 @@
         <v>142</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>12</v>
@@ -5677,10 +5673,10 @@
         <v>105</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>12</v>
@@ -5694,13 +5690,13 @@
         <v>17</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>12</v>
@@ -5711,16 +5707,16 @@
         <v>82</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,10 +5724,10 @@
         <v>49</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>12</v>
@@ -5743,10 +5739,10 @@
         <v>165</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>12</v>
@@ -5760,13 +5756,13 @@
         <v>173</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>12</v>
@@ -5777,13 +5773,13 @@
         <v>76</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>12</v>
@@ -5794,13 +5790,13 @@
         <v>202</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>12</v>
@@ -5811,10 +5807,10 @@
         <v>43</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>12</v>
@@ -5828,13 +5824,13 @@
         <v>69</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>12</v>
@@ -5845,10 +5841,10 @@
         <v>102</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>12</v>
@@ -5860,10 +5856,10 @@
         <v>126</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>12</v>
@@ -5877,16 +5873,16 @@
         <v>208</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,16 +5890,16 @@
         <v>40</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,10 +5907,10 @@
         <v>163</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>12</v>
@@ -5928,13 +5924,13 @@
         <v>91</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>12</v>
@@ -5945,10 +5941,10 @@
         <v>184</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>12</v>
@@ -5962,13 +5958,13 @@
         <v>119</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>12</v>
@@ -5979,10 +5975,10 @@
         <v>153</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>12</v>

--- a/data/merge_teamrankings.xlsx
+++ b/data/merge_teamrankings.xlsx
@@ -79,13 +79,13 @@
     <t xml:space="preserve">Alabama</t>
   </si>
   <si>
+    <t xml:space="preserve">S Alabama</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alabama Crimson Tide</t>
   </si>
   <si>
     <t xml:space="preserve">ALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S Alabama</t>
   </si>
   <si>
     <t xml:space="preserve">Albright Lions</t>
@@ -1799,7 +1799,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1829,12 +1829,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1886,7 +1880,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1903,10 +1897,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1916,6 +1906,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2101,8 +2108,8 @@
   </sheetPr>
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A213" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E123" activeCellId="0" sqref="E123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2196,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,15 +2211,15 @@
         <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/data/merge_teamrankings.xlsx
+++ b/data/merge_teamrankings.xlsx
@@ -1571,12 +1571,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1593,23 +1597,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1795,3846 +1782,3846 @@
   </sheetPr>
   <dimension ref="A1:E229"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E229"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F210" activeCellId="0" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="2"/>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="2"/>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E62" s="2"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="2" t="s">
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="2" t="s">
+      <c r="D91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="A92" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="A94" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="A96" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="2" t="s">
+      <c r="D96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="A97" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="A98" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D99" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="A100" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="D100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="A102" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="D102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="A103" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="E103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="A104" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="A105" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="A106" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="A107" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E107" s="2"/>
+      <c r="E107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="A108" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="A109" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="A110" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="A111" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="2" t="s">
+      <c r="D111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="A112" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="2" t="s">
+      <c r="D112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="A113" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="D113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="A114" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E114" s="2"/>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="A115" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="2" t="s">
+      <c r="D115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="A116" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="2" t="s">
+      <c r="D116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="A117" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D117" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="2"/>
+      <c r="D117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="A118" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="D118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="A119" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+      <c r="A120" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="2" t="s">
+      <c r="D120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="A121" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D121" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="D121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+      <c r="A122" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+      <c r="A123" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E123" s="2"/>
+      <c r="E123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+      <c r="A124" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E124" s="2"/>
+      <c r="E124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+      <c r="A125" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D125" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="D125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+      <c r="A126" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+      <c r="A127" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+      <c r="A128" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="D128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+      <c r="A129" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>11</v>
+      <c r="E129" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+      <c r="A130" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D130" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="D130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+      <c r="A131" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+      <c r="A132" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D132" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="D132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+      <c r="A133" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+      <c r="A134" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D134" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="2" t="s">
+      <c r="D134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
+      <c r="A135" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
+      <c r="A136" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
+      <c r="A137" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D137" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>298</v>
+      <c r="D137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+      <c r="A138" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+      <c r="A139" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E139" s="2"/>
+      <c r="E139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+      <c r="A140" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
+      <c r="A141" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
+      <c r="A142" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
+      <c r="A143" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
+      <c r="A144" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E144" s="2"/>
+      <c r="E144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+      <c r="A145" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+      <c r="A146" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
+      <c r="A147" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
+      <c r="A148" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D148" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="D148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
+      <c r="A149" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D149" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="D149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+      <c r="A150" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
+      <c r="A151" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D151" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" s="2" t="s">
+      <c r="D151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="n">
+      <c r="A152" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="n">
+      <c r="A153" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D153" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="D153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="n">
+      <c r="A154" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D154" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154" s="2" t="s">
+      <c r="D154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="n">
+      <c r="A155" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="n">
+      <c r="A156" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D156" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E156" s="2" t="s">
+      <c r="D156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="n">
+      <c r="A157" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="n">
+      <c r="A158" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D158" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" s="2" t="s">
+      <c r="D158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="n">
+      <c r="A159" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="3" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="n">
+      <c r="A160" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D160" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" s="2" t="s">
+      <c r="D160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="n">
+      <c r="A161" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="n">
+      <c r="A162" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="n">
+      <c r="A163" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D163" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E163" s="2"/>
+      <c r="D163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="3"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="n">
+      <c r="A164" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D164" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" s="2" t="s">
+      <c r="D164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="n">
+      <c r="A165" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D165" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" s="2" t="s">
+      <c r="D165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="n">
+      <c r="A166" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D166" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" s="2" t="s">
+      <c r="D166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="n">
+      <c r="A167" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D167" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E167" s="2" t="s">
+      <c r="D167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="n">
+      <c r="A168" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E168" s="2"/>
+      <c r="E168" s="3"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="n">
+      <c r="A169" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="n">
+      <c r="A170" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D170" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" s="2" t="s">
+      <c r="D170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="n">
+      <c r="A171" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D171" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="2" t="s">
+      <c r="D171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="n">
+      <c r="A172" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="3" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="n">
+      <c r="A173" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D173" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" s="2" t="s">
+      <c r="D173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="n">
+      <c r="A174" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D174" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E174" s="2" t="s">
+      <c r="D174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="n">
+      <c r="A175" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="n">
+      <c r="A176" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D176" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E176" s="2" t="s">
+      <c r="D176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="n">
+      <c r="A177" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="n">
+      <c r="A178" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D178" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" s="2" t="s">
+      <c r="D178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="n">
+      <c r="A179" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D179" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="2" t="s">
+      <c r="D179" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="n">
+      <c r="A180" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D180" s="0" t="s">
+      <c r="D180" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E180" s="2"/>
+      <c r="E180" s="3"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="n">
+      <c r="A181" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="n">
+      <c r="A182" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D182" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E182" s="2"/>
+      <c r="D182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="n">
+      <c r="A183" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D183" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E183" s="2" t="s">
+      <c r="D183" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="n">
+      <c r="A184" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D184" s="0" t="s">
+      <c r="D184" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E184" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="n">
+      <c r="A185" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D185" s="0" t="s">
+      <c r="D185" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="E185" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="n">
+      <c r="A186" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D186" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" s="2" t="s">
+      <c r="D186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="n">
+      <c r="A187" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D187" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E187" s="2" t="s">
+      <c r="D187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="n">
+      <c r="A188" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D188" s="0" t="s">
+      <c r="D188" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="n">
+      <c r="A189" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="D189" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="n">
+      <c r="A190" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D190" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E190" s="2" t="s">
+      <c r="D190" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="n">
+      <c r="A191" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D191" s="0" t="s">
+      <c r="D191" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="n">
+      <c r="A192" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D192" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E192" s="2" t="s">
+      <c r="D192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="n">
+      <c r="A193" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D193" s="0" t="s">
+      <c r="D193" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E193" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="n">
+      <c r="A194" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D194" s="0" t="s">
+      <c r="D194" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="E194" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="n">
+      <c r="A195" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D195" s="0" t="s">
+      <c r="D195" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="n">
+      <c r="A196" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D196" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="n">
+      <c r="A197" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D197" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E197" s="2" t="s">
+      <c r="D197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="n">
+      <c r="A198" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D198" s="0" t="s">
+      <c r="D198" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="n">
+      <c r="A199" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D199" s="0" t="s">
+      <c r="D199" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="n">
+      <c r="A200" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D200" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E200" s="2" t="s">
+      <c r="D200" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="n">
+      <c r="A201" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D201" s="0" t="s">
+      <c r="D201" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E201" s="2"/>
+      <c r="E201" s="3"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="n">
+      <c r="A202" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D202" s="0" t="s">
+      <c r="D202" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="n">
+      <c r="A203" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D203" s="0" t="s">
+      <c r="D203" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="n">
+      <c r="A204" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D204" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E204" s="2" t="s">
+      <c r="D204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="n">
+      <c r="A205" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D205" s="0" t="s">
+      <c r="D205" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="E205" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="n">
+      <c r="A206" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D206" s="0" t="s">
+      <c r="D206" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E207" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="n">
-        <v>163</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="D207" s="0" t="s">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E213" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="n">
-        <v>207</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="C208" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="D208" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="D209" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="E209" s="2"/>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="D210" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="n">
-        <v>223</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="D211" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="D212" s="0" t="s">
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="n">
-        <v>126</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="n">
-        <v>199</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="D214" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E214" s="2"/>
-    </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="n">
-        <v>169</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="D215" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="C216" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="D216" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="n">
-        <v>142</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="D218" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="C219" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="D219" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="C220" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="D220" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="D221" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="E221" s="2"/>
-    </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="n">
-        <v>173</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="D222" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="n">
-        <v>208</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="D223" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>451</v>
-      </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="n">
+      <c r="A224" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D224" s="0" t="s">
+      <c r="D224" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" s="3" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="n">
+      <c r="A225" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C225" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D225" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E225" s="2" t="s">
+      <c r="D225" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="n">
+      <c r="A226" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D226" s="0" t="s">
+      <c r="D226" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E226" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="n">
+      <c r="A227" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D227" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="D227" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="n">
+      <c r="A228" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D228" s="0" t="s">
+      <c r="D228" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E228" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="n">
+      <c r="A229" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C229" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D229" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E229" s="2" t="s">
+      <c r="D229" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229" s="3" t="s">
         <v>11</v>
       </c>
     </row>
